--- a/biology/Histoire de la zoologie et de la botanique/Gaston-Jules_Decorse/Gaston-Jules_Decorse.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gaston-Jules_Decorse/Gaston-Jules_Decorse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gaston-Jules Decorse, né le 10 octobre 1873 et décédé le 26 août 1907, est un botaniste français.
 </t>
@@ -511,10 +523,12 @@
           <t>Botanique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1900, il publie la description de deux espèces, Vaombe et Vaotsohy dans Madagascar - Notes, reconnaissances et explorations[1]. Sa description est incomplète ; il ne crée pas non plus de véritables noms scientifiques.
-En 1912, Henri Louis Poisson reprend et complète ces descriptions dans Recherches sur la flore méridionale de Madagascar [2]. Les deux espèces sont donc Aloe vaombe Decorse &amp; Poiss. et Aloe vaotsohy Decorse &amp; Poiss. La première espèce est toujours acceptée en 2015. La seconde a connu une rectification taxinomique en 2012 pour devenir Aloe divaricata subsp. vaotsohy (Decorse &amp; Poiss.) J.-P.Castillon
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1900, il publie la description de deux espèces, Vaombe et Vaotsohy dans Madagascar - Notes, reconnaissances et explorations. Sa description est incomplète ; il ne crée pas non plus de véritables noms scientifiques.
+En 1912, Henri Louis Poisson reprend et complète ces descriptions dans Recherches sur la flore méridionale de Madagascar . Les deux espèces sont donc Aloe vaombe Decorse &amp; Poiss. et Aloe vaotsohy Decorse &amp; Poiss. La première espèce est toujours acceptée en 2015. La seconde a connu une rectification taxinomique en 2012 pour devenir Aloe divaricata subsp. vaotsohy (Decorse &amp; Poiss.) J.-P.Castillon
 De fait, la publication de Poisson date de 1912, cinq ans après la mort de J. Decorse. Ce dernier est pourtant crédité au même titre que H. Poisson.
 </t>
         </is>
